--- a/T41_V012_Files_01-15-24/T41_V012_BOMs/Source Files/T41_RF_Board_BOM_V012.6_09-28-24.xlsx
+++ b/T41_V012_Files_01-15-24/T41_V012_BOMs/Source Files/T41_RF_Board_BOM_V012.6_09-28-24.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dad\Documents\GitHub\T41\T41_V012_Files_01-15-24\T41_V012_BOMs\Source Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{41053934-AE57-45C6-ABDD-18B6288A8938}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A29D5B90-6263-4B3B-A889-A08E91FCB4F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="356">
   <si>
     <t>T41 V012.6 RF Board Parts (Less PCB)</t>
   </si>
@@ -1124,6 +1124,9 @@
   </si>
   <si>
     <t>70-IFSC2020DER100M01</t>
+  </si>
+  <si>
+    <t>490-10814-1-ND</t>
   </si>
 </sst>
 </file>
@@ -1836,8 +1839,8 @@
   </sheetPr>
   <dimension ref="A1:L62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2476,6 +2479,9 @@
       <c r="D21" t="s">
         <v>354</v>
       </c>
+      <c r="E21" t="s">
+        <v>355</v>
+      </c>
       <c r="G21" s="11">
         <v>0.47</v>
       </c>
@@ -3734,7 +3740,7 @@
   <dimension ref="A1:H57"/>
   <sheetViews>
     <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4164,6 +4170,9 @@
       </c>
       <c r="D20" t="s">
         <v>354</v>
+      </c>
+      <c r="E20" t="s">
+        <v>355</v>
       </c>
       <c r="G20" s="11">
         <v>0.47</v>
